--- a/tests/testing_files/conversion_delete_after_assign_warning.xlsx
+++ b/tests/testing_files/conversion_delete_after_assign_warning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC08A1-D50E-4FD0-8AD8-B9A5956C44FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A98E68-A2E4-4D68-9D26-36CAE0851A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2580" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>asdf</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>#measurement.formula.delete</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,13 +657,13 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,21 +682,21 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
